--- a/message model.xlsx
+++ b/message model.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,111 +57,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[lobby list]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA TYPE (1 byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77(M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78(N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79(O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80(P)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81(Q)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82(R)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84(T)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86(V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87(W)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97(a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[id] [password]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66(B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby info R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98(b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67(C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room create R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99(c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[maxNum] [isPublic]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[num] [maxNum] [isPublic]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68(D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room config R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69(E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific room enter R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail to enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[room number]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70(F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room enter R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71(G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room chat R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102(f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room chat (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room exit R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74(J)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75(K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106(j)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122(z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign up R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[id] [password]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>s / f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[lobby list]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA TYPE (1 byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77(M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78(N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79(O)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80(P)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81(Q)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82(R)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84(T)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85(U)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86(V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87(W)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97(a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[id] [password]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66(B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lobby info R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98(b)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lobby info</t>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[68], [70], [72]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show friends R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room update (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add friend R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,55 +393,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>67(C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room create R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99(c)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[maxNum] [isPublic]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[num] [maxNum] [isPublic]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68(D)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room config R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69(E)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific room enter R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail to enter</t>
+    <t>[friend id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[friends list]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1: add myself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s / f / f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete friend R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n: separator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s [room info] / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f: room unabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[infomation of server]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89(Y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89(Z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[notice type] [message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[sender]\r\n[message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a(ll) / c(lients) / r(ooms) / e(rrors)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,19 +493,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70(F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room enter R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
+    <t>by admin, $sep$: separator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,151 +505,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71(G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room chat R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102(f)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room chat (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72(H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room exit R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103(g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104(h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74(J)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105(i)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75(K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106(j)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122(z)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign up R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[id] [password]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[68], [70], [72]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show friends R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room update (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show friends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add friend R</t>
+    <t>121(y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119(w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,122 +521,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[friend id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[friends list]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f1: add myself</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s / f / f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete friend R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n: separator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s [room info] / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f: room unabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88(X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[infomation of server]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89(Y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89(Z)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[notice type] [message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sender]\r\n[message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a(ll) / c(lients) / r(ooms) / e(rrors)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[room number]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by admin, $sep$: separator</t>
+    <t>s / f / f1 / f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f: pw error f1: no id, f2: unknown error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,12 +615,46 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -874,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -888,36 +945,36 @@
     <col min="6" max="6" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.25" customWidth="1"/>
     <col min="8" max="9" width="30.625" customWidth="1"/>
-    <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="2"/>
       <c r="H3" s="5" t="s">
         <v>1</v>
@@ -926,12 +983,12 @@
         <v>5</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -955,46 +1012,48 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1002,23 +1061,23 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1026,18 +1085,18 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1046,23 +1105,23 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1070,18 +1129,18 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1091,65 +1150,65 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1158,23 +1217,23 @@
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1182,23 +1241,23 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1206,42 +1265,42 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1250,11 +1309,11 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1266,11 +1325,11 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1282,11 +1341,11 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1298,11 +1357,11 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1314,11 +1373,11 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1330,11 +1389,11 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1346,11 +1405,11 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1362,11 +1421,11 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1378,11 +1437,11 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1394,11 +1453,11 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1410,11 +1469,11 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1425,12 +1484,8 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1444,7 +1499,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1455,76 +1510,86 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="E31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1556,8 +1621,7 @@
       <c r="G37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="4">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C3:D3"/>
@@ -1565,6 +1629,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[lobby list]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATA TYPE (1 byte)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,375 +149,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67(C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room create R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99(c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[maxNum] [isPublic]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68(D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room config R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69(E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific room enter R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[room number]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70(F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room enter R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71(G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room chat R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102(f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room chat (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room exit R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74(J)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75(K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106(j)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122(z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign up R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[id] [password]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[68], [70], [72]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show friends R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room update (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add friend R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[friend id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[friends list]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1: add myself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s / f / f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete friend R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n: separator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s [room info] / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f: room unabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[infomation of server]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89(Y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89(Z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[notice type] [message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[sender]\r\n[message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a(ll) / c(lients) / r(ooms) / e(rrors)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[room number]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by admin, $sep$: separator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121(y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119(w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[friend id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail to room enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[public room info list]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobbyNum totalNum maximumNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lobby info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diconnect R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;empty&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>67(C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room create R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99(c)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[maxNum] [isPublic]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[num] [maxNum] [isPublic]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68(D)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room config R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69(E)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific room enter R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail to enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[room number]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70(F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room enter R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71(G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room chat R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102(f)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room chat (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72(H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room exit R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103(g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104(h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74(J)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105(i)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75(K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106(j)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122(z)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign up R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[id] [password]</t>
+    <t>미구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[68], [70], [72]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show friends R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room update (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show friends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add friend R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[friend id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[friends list]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f1: add myself</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s / f / f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete friend R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n: separator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s [room info] / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f: room unabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88(X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[infomation of server]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89(Y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89(Z)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[notice type] [message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sender]\r\n[message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a(ll) / c(lients) / r(ooms) / e(rrors)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[room number]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by admin, $sep$: separator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119(w)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s / f / f1 / f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f: pw error f1: no id, f2: unknown error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +628,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -950,31 +962,31 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="5" t="s">
         <v>1</v>
@@ -982,13 +994,11 @@
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1012,72 +1022,72 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1085,18 +1095,18 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1105,23 +1115,23 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1129,18 +1139,18 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1150,65 +1160,65 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1217,23 +1227,23 @@
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1241,23 +1251,23 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1265,42 +1275,42 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1309,11 +1319,11 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1325,11 +1335,11 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1341,11 +1351,11 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1357,11 +1367,11 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1373,11 +1383,11 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1389,11 +1399,11 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1405,11 +1415,11 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1421,11 +1431,11 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1437,11 +1447,11 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1453,11 +1463,11 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1467,17 +1477,23 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1485,7 +1501,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1499,7 +1515,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1511,23 +1527,23 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1535,61 +1551,61 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,7 +537,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s / f</t>
+    <t>[item version] / f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +944,7 @@
   <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,27 +469,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>121(y)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>119(w)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -944,7 +928,7 @@
   <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1054,17 +1038,17 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -1087,7 +1071,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1102,7 +1086,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1124,14 +1108,14 @@
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1288,7 +1272,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>87</v>
@@ -1478,13 +1462,13 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
@@ -1492,7 +1476,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1529,22 +1513,14 @@
       <c r="C31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
@@ -1582,7 +1558,7 @@
         <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>89</v>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire Project\The Vampire Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire\TheVampire_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[infomation of server]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>diconnect R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;empty&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,13 +514,37 @@
   </si>
   <si>
     <t>[item version] / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconnect R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118(v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item list R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[item list]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1038,17 +1054,17 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -1071,7 +1087,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1086,7 +1102,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1108,14 +1124,14 @@
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1178,10 +1194,10 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>90</v>
@@ -1202,7 +1218,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1272,7 +1288,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>87</v>
@@ -1449,26 +1465,30 @@
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
@@ -1476,7 +1496,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1499,7 +1519,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1515,63 +1535,67 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,10 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;empty&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,6 +534,18 @@
   </si>
   <si>
     <t>[item list]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[isPublic]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s [t / f] / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s [ public / pricvate]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1043,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1084,16 +1092,20 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>68</v>
@@ -1474,7 +1486,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1482,13 +1494,13 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>69</v>
@@ -1496,7 +1508,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1519,7 +1531,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1538,12 +1550,12 @@
         <v>110</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire\TheVampire_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire Project\The Vampire Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="132">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,13 +546,21 @@
   </si>
   <si>
     <t>s [ public / pricvate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game start (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -952,7 +960,7 @@
   <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1337,10 +1345,14 @@
       <c r="E18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire Project\The Vampire Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire Project\TheVampire_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -553,7 +553,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;empty&gt;</t>
+    <t>v / h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire Project\TheVampire_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire\TheVampire_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,46 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>122(z)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[infomation of server]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,6 +510,90 @@
   </si>
   <si>
     <t>v / h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random number R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107(k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random number (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[long number]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number: 0 ~ 999,999,999,999,999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card submit R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cardNo] &lt;[targetID]&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game battle info (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108(l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111(o)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112(p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113(q)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114(r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116(t)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117(u)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[targetID] [class] / [message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[targetID] [hp]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -970,9 +1010,10 @@
     <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="1.25" customWidth="1"/>
-    <col min="8" max="9" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="33.625" customWidth="1"/>
     <col min="10" max="10" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1051,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1070,17 +1111,17 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -1100,13 +1141,13 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -1122,7 +1163,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1144,14 +1185,14 @@
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1180,21 +1221,21 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1214,13 +1255,13 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -1234,11 +1275,11 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1250,20 +1291,20 @@
         <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1274,20 +1315,20 @@
         <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1298,23 +1339,23 @@
         <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -1324,34 +1365,29 @@
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1359,59 +1395,78 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1423,11 +1478,11 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1439,11 +1494,11 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1455,11 +1510,11 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1471,11 +1526,11 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1487,67 +1542,44 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1555,105 +1587,112 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="E31" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="I31" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
+      <c r="I34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="3" t="s">
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,6 +594,14 @@
   </si>
   <si>
     <t>[targetID] [hp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room in/out (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i/o [userID]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1468,10 +1476,14 @@
       <c r="E22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -1008,7 +1008,7 @@
   <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire\TheVampire_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonBackSan\Desktop\The Vampire Project\The Vampire Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,10 +586,6 @@
   </si>
   <si>
     <t>117(u)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[targetID] [class] / [message]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1008,7 +1004,7 @@
   <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1438,7 @@
         <v>127</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1462,7 +1458,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1477,12 +1473,12 @@
         <v>132</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,10 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game battle info (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>108(l)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,15 +585,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[targetID] [hp]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>room in/out (multicast)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i/o [userID]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer update (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[timer]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[turn] [[targetID] [hp]]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game turn info (multicast)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1436,7 @@
         <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>128</v>
@@ -1450,15 +1458,15 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1470,15 +1478,15 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1490,12 +1498,16 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
@@ -1506,7 +1518,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1522,7 +1534,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1538,7 +1550,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1554,7 +1566,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1564,7 +1576,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1574,7 +1586,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,267 +345,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>\r\n: separator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s [room info] / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f: room unabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[infomation of server]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89(Y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89(Z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[notice type] [message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[sender]\r\n[message]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a(ll) / c(lients) / r(ooms) / e(rrors)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[room number]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by admin, $sep$: separator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121(y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119(w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[friend id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail to room enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[public room info list]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobbyNum totalNum maximumNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[item version] / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconnect R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118(v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item list R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[item list]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[isPublic]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s [t / f] / f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s [ public / pricvate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game start (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v / h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random number R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107(k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random number (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[long number]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number: 0 ~ 999,999,999,999,999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card submit R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cardNo] &lt;[targetID]&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108(l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111(o)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112(p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113(q)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114(r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116(t)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117(u)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room in/out (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i/o [userID]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer update (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[timer]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[turn] [[targetID] [hp]]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game turn info (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ack R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>notice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\r\n: separator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s [room info] / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f: room unabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88(X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[infomation of server]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89(Y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89(Z)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[notice type] [message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sender]\r\n[message]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a(ll) / c(lients) / r(ooms) / e(rrors)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[room number]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by admin, $sep$: separator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119(w)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[friend id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail to room enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[public room info list]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lobbyNum totalNum maximumNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lobby info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[item version] / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disconnect R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118(v)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item list R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;empty&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[item list]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[isPublic]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s [t / f] / f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s [ public / pricvate]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game start (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v / h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random number R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107(k)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random number (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[long number]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number: 0 ~ 999,999,999,999,999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card submit R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[cardNo] &lt;[targetID]&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108(l)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110(n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111(o)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112(p)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113(q)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114(r)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116(t)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117(u)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room in/out (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i/o [userID]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timer update (multicast)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[timer]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[turn] [[targetID] [hp]]*4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game turn info (multicast)</t>
+    <t>[ackSerial] / &lt;empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty: retransfer Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X(server)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$s$[serial]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K37"/>
+  <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1123,17 +1147,17 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -1153,13 +1177,13 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -1175,7 +1199,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1197,14 +1221,14 @@
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1244,10 +1268,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1267,13 +1291,13 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -1291,7 +1315,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1361,7 +1385,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>77</v>
@@ -1394,12 +1418,12 @@
         <v>59</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1410,20 +1434,20 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="G19" s="3"/>
       <c r="I19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -1433,20 +1457,20 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1458,35 +1482,37 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1498,15 +1524,15 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1518,7 +1544,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1534,7 +1560,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1550,7 +1576,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1561,12 +1587,8 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1576,7 +1598,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1586,7 +1608,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1595,13 +1617,24 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
@@ -1610,44 +1643,44 @@
         <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
@@ -1656,51 +1689,51 @@
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -1718,6 +1751,14 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +630,18 @@
   </si>
   <si>
     <t>$s$[serial]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game over (multicast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v / h / d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v / h: winner's team, d: draw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1546,11 +1558,17 @@
       <c r="E24" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">

--- a/message model.xlsx
+++ b/message model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="158">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,22 @@
   </si>
   <si>
     <t>v / h: winner's team, d: draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game info + turn info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[message]\r\n[turn] [[targetID] [hp]]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n\r: separator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K38"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1077,7 @@
     <col min="6" max="6" width="24.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="1.25" customWidth="1"/>
     <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="9" max="9" width="33.625" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
     <col min="10" max="10" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1174,7 +1190,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1628,13 +1646,22 @@
       <c r="E29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="G29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
@@ -1777,6 +1804,23 @@
       <c r="F38" s="1" t="s">
         <v>150</v>
       </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
